--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_56.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_56.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,43 +488,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>isophonics_205</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0572717806317251</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['A:min', 'A:min/b7', 'A:min/6']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(3.32, 8.68)]</t>
+          <t>[['D:min', 'D:min', 'D:min/A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(9.48, 25.94)]</t>
+          <t>[('0:00:00.060000', '0:00:06.451609')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:27.200000', '0:00:40.320000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
@@ -528,675 +538,648 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(12.42, 27.08), (73.62, 81.04)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74), (30.02, 32.12)]</t>
+          <t>[('0:00:00.600000', '0:00:11.320000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:07.560000', '0:00:20.920000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_200</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3652173913043478</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(78.32, 99.6)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(86.98, 111.2)]</t>
+          <t>[('0:00:02.408196', '0:00:13.878853')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86)]</t>
+          <t>[('0:01:51.920000', '0:01:55.660000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(4.74, 8.62)]</t>
+          <t>[('0:01:13.320000', '0:01:21.680000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:59.260000', '0:01:01.360000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Bb:maj', 'C', 'Bb/5', 'F']]</t>
-        </is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5052631578947369</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Eb', 'F', 'Eb', 'Bb']]</t>
+          <t>[['G/5', 'C/9', 'G', 'C/5']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(29.986893, 34.874693)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(50.246303, 55.621723)]</t>
+          <t>[('0:00:00.727609', '0:00:10.723990')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
-        </is>
-      </c>
+          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(13.72, 22.2)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(6.92, 13.46)]</t>
+          <t>[('0:00:00.360000', '0:00:05.600000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(7.36, 16.52)]</t>
+          <t>[('0:01:58.780000', '0:02:06.080000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:47.100000', '0:01:51.480000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_35</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1963636363636364</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02)]</t>
+          <t>[['G:7', 'C', 'C/7']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:00:08.340000', '0:00:15.040000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:12.851927', '0:00:16.810929')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1187888198757764</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(111.28, 124.16)]</t>
+          <t>[['G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(36.4, 44.08)]</t>
+          <t>[('0:00:41.080000', '0:00:43.260000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:01.014823', '0:00:06.126439')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1213235294117647</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'A', 'A/7'], ['A', 'A', 'C#:min/5', 'F#:min'], ['A/b6', 'A/5', 'A', 'C#:min/5']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_72</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1277173913043478</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'A', 'A'], ['A', 'A', 'C#:min', 'F#:min'], ['A', 'A', 'A', 'C#:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(81.443752, 86.183398), (71.01849, 79.713866), (87.427993, 91.614092)]</t>
+          <t>[['D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(18.686825, 23.760385), (8.655804, 18.686825), (46.365011, 56.488911)]</t>
+          <t>[('0:00:45.480000', '0:00:48')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+          <t>[('0:00:32.074829', '0:00:37.705668')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_108</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_79</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9479166666666667</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['E', 'D', 'A', 'E', 'A', 'D', 'A', 'E', 'D', 'A', 'E', 'A', 'D', 'A', 'E', 'D', 'A', 'E', 'A', 'D', 'A', 'E', 'D', 'A', 'E', 'A', 'D', 'A', 'E', 'D', 'A', 'E', 'A', 'D', 'A', 'E', 'D', 'A', 'E', 'A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(47.3, 50.04)]</t>
+          <t>[['B', 'A', 'E', 'B', 'E', 'A', 'E', 'B', 'A', 'E', 'B', 'E', 'A', 'E', 'B', 'A', 'E', 'B', 'E', 'A', 'E', 'B', 'A', 'E', 'B', 'E', 'A', 'E', 'B', 'A', 'E', 'B', 'E', 'A', 'E', 'B', 'A', 'E', 'B', 'E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(1.5, 4.8)]</t>
+          <t>[('0:00:15.586961', '0:02:23.772721')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:01.073119', '0:02:02.908221')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(16.52, 25.4)]</t>
+          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(40.08, 42.28)]</t>
+          <t>[('0:00:10.100000', '0:01:03.440000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:09.180000', '0:01:01')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(38.9, 47.16)]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(96.06, 107.42)]</t>
+          <t>[('0:00:13.820000', '0:00:17.980000'), ('0:00:23.160000', '0:00:26.040000'), ('0:00:18.660000', '0:00:20.140000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:11.760000', '0:00:15.640000'), ('0:00:20.540000', '0:00:23.160000'), ('0:00:16.240000', '0:00:17.660000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.82, 6.76)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(46.52, 48.94)]</t>
+          <t>[('0:00:01.440000', '0:02:10.840000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>[('0:00:00.360000', '0:02:02.640000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(47.58, 50.04)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(37.36, 44.66)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
